--- a/SampleInitialStatsInput/test1.xlsx
+++ b/SampleInitialStatsInput/test1.xlsx
@@ -25,42 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pre-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Faction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +85,42 @@
   </si>
   <si>
     <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,42 +466,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>4</v>
